--- a/Test Data/FC_Gallery_MainProcessor_Repeaters_FIM_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_MainProcessor_Repeaters_FIM_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A73C1CD-D561-4818-B5DC-9327C3841573}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E44AC12-2915-4A1F-8027-DAF0EF83EBBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A58DDE6-C720-4113-B0B4-478A3D49401A}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -941,7 +941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03295953-445D-491E-8DE0-5319E8B6F665}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/Test Data/FC_Gallery_MainProcessor_Repeaters_FIM_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_MainProcessor_Repeaters_FIM_Series_Panels.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E44AC12-2915-4A1F-8027-DAF0EF83EBBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCDA4B9-914A-4522-B000-F6581071C5F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
     <sheet name="Spain" sheetId="22" r:id="rId2"/>
-    <sheet name="Hungary" sheetId="23" r:id="rId3"/>
-    <sheet name="Italy" sheetId="24" r:id="rId4"/>
+    <sheet name="Italy" sheetId="24" r:id="rId3"/>
+    <sheet name="Hungary" sheetId="23" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -677,7 +677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A58DDE6-C720-4113-B0B4-478A3D49401A}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -811,133 +811,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1FBFCD-A0F4-4CC6-A0CE-3DFECFE73C8D}">
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="6"/>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03295953-445D-491E-8DE0-5319E8B6F665}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -1072,4 +945,131 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1FBFCD-A0F4-4CC6-A0CE-3DFECFE73C8D}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_MainProcessor_Repeaters_FIM_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_MainProcessor_Repeaters_FIM_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCDA4B9-914A-4522-B000-F6581071C5F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308BE353-8EF0-4F15-B8CB-2E8AF7A8437A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t>FireClass 64RD</t>
   </si>
   <si>
-    <t>NGC- T1237/T1244/T1252</t>
-  </si>
-  <si>
     <t>Spain Market</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>NGC-3443/T1925/T1943/T1956</t>
+  </si>
+  <si>
+    <t>NGC-3003/ T1237/T1244/T1252</t>
   </si>
 </sst>
 </file>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E633250-93FC-4A95-8297-DC7F9D0A64D2}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -702,7 +702,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -724,7 +724,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -839,7 +839,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -861,7 +861,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1FBFCD-A0F4-4CC6-A0CE-3DFECFE73C8D}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -976,7 +976,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -998,7 +998,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
